--- a/region.xlsx
+++ b/region.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shein_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BBAFE0-EB3B-425C-B1A4-66B256034F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7440A01F-A880-4067-A990-6DB0BEE035E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{20C2354B-810A-4944-98FC-B1B3E364FC6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
   <si>
     <t>Region</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>Delivery Station</t>
+  </si>
+  <si>
+    <t>ALK DS05</t>
+  </si>
+  <si>
+    <t>TBJ DS01</t>
   </si>
 </sst>
 </file>
@@ -782,9 +788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13722A55-C6E0-416B-AD1E-344A30EEE47C}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1743,6 +1751,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
